--- a/allen/Z_ResultsTable_feb,28.xlsx
+++ b/allen/Z_ResultsTable_feb,28.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118DB22C-F09B-CA4B-8A01-EECAC5721019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC48B3-017A-0F41-AFCC-0E1E4985715A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="560" windowWidth="38400" windowHeight="21140" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
     <sheet name="order diff" sheetId="1" r:id="rId1"/>
     <sheet name="Lishan and Alan results compari" sheetId="3" r:id="rId2"/>
-    <sheet name="new results" sheetId="2" r:id="rId3"/>
+    <sheet name="old" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="178">
   <si>
     <t>Exp_ID</t>
   </si>
@@ -476,9 +476,6 @@
     <t xml:space="preserve">Medium: 0.69 </t>
   </si>
   <si>
-    <t>Low: 0.73</t>
-  </si>
-  <si>
     <t>Low: 0.72</t>
   </si>
   <si>
@@ -558,6 +555,21 @@
   </si>
   <si>
     <t>within_classification_logistic</t>
+  </si>
+  <si>
+    <t>between_stressGroup_netural_vs_negative</t>
+  </si>
+  <si>
+    <t>Low: 0.5723443223443223</t>
+  </si>
+  <si>
+    <t>Medium: 0.552240728021978</t>
+  </si>
+  <si>
+    <t>High: 0.5468082264957265</t>
+  </si>
+  <si>
+    <t>Within_netVSneg</t>
   </si>
 </sst>
 </file>
@@ -3444,10 +3456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297C771C-02E5-B94B-A122-98B3A6C4731F}">
-  <dimension ref="A1:AG63"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -3470,17 +3482,18 @@
     <col min="18" max="18" width="27.5" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="21.6640625" customWidth="1"/>
-    <col min="25" max="25" width="29.6640625" customWidth="1"/>
-    <col min="26" max="26" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.6640625" customWidth="1"/>
-    <col min="28" max="28" width="29.6640625" customWidth="1"/>
-    <col min="29" max="29" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" customWidth="1"/>
-    <col min="31" max="31" width="29.6640625" customWidth="1"/>
+    <col min="22" max="22" width="30.83203125" customWidth="1"/>
+    <col min="24" max="25" width="21.6640625" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" customWidth="1"/>
+    <col min="27" max="27" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6640625" customWidth="1"/>
+    <col min="32" max="32" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3533,55 +3546,61 @@
         <v>16</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T1" s="15" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AD1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AG1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AI1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
@@ -3632,50 +3651,56 @@
         <v>0.88888888888888795</v>
       </c>
       <c r="T2">
-        <v>0.86111111111111105</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="U2">
         <v>0.91666666666666596</v>
       </c>
       <c r="V2">
+        <v>0.71875</v>
+      </c>
+      <c r="W2">
         <v>22</v>
       </c>
-      <c r="W2" t="str">
-        <f>IF(V2&lt;=12,"L",IF(V2&gt;18,"H", "M"))</f>
+      <c r="X2" t="str">
+        <f>IF(W2&lt;=12,"L",IF(W2&gt;18,"H", "M"))</f>
         <v>H</v>
       </c>
-      <c r="X2" s="30">
+      <c r="Y2" s="30">
         <v>1</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.97222222222222199</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AB2" s="29">
+      <c r="AC2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="AD2" s="29">
         <v>1</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.81</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AE2" s="31">
+      <c r="AG2" s="31">
         <v>1</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:35">
       <c r="A3" s="28" t="s">
         <v>34</v>
       </c>
@@ -3731,45 +3756,51 @@
       <c r="U3">
         <v>0.88888888888888795</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="W3" s="3">
         <v>10</v>
       </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3:W41" si="0">IF(V3&lt;=12,"L",IF(V3&gt;18,"H", "M"))</f>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X41" si="0">IF(W3&lt;=12,"L",IF(W3&gt;18,"H", "M"))</f>
         <v>L</v>
       </c>
-      <c r="X3" s="30">
+      <c r="Y3" s="30">
         <v>2</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.77777777777777701</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AC3">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="AD3" s="29">
         <v>2</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>0.86</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AE3" s="31">
+      <c r="AG3" s="31">
         <v>2</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:35">
       <c r="A4" s="28" t="s">
         <v>39</v>
       </c>
@@ -3823,50 +3854,56 @@
         <v>0.63888888888888795</v>
       </c>
       <c r="T4">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="U4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="W4" s="7">
         <v>19</v>
       </c>
-      <c r="W4" t="str">
+      <c r="X4" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X4" s="30">
+      <c r="Y4" s="30">
         <v>3</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.80555555555555503</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.75</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AC4">
+        <v>0.4375</v>
+      </c>
+      <c r="AD4" s="29">
         <v>3</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>0.72</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AE4" s="31">
+      <c r="AG4" s="31">
         <v>3</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>0.75</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>0.69</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:35">
       <c r="A5" s="28" t="s">
         <v>43</v>
       </c>
@@ -3917,50 +3954,56 @@
         <v>0.69444444444444398</v>
       </c>
       <c r="T5">
-        <v>0.58333333333333304</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="U5">
         <v>0.63888888888888795</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5">
+        <v>0.5625</v>
+      </c>
+      <c r="W5" s="3">
         <v>17</v>
       </c>
-      <c r="W5" t="str">
+      <c r="X5" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X5" s="30">
+      <c r="Y5" s="30">
         <v>4</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AC5">
+        <v>0.515625</v>
+      </c>
+      <c r="AD5" s="29">
         <v>4</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>0.86</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AG5" s="31">
         <v>4</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:35">
       <c r="A6" s="28" t="s">
         <v>45</v>
       </c>
@@ -4017,44 +4060,50 @@
         <v>0.86111111111111105</v>
       </c>
       <c r="V6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W6">
         <v>23</v>
       </c>
-      <c r="W6" t="str">
+      <c r="X6" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X6" s="30">
+      <c r="Y6" s="30">
         <v>5</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.94444444444444398</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AC6">
+        <v>0.59895833333333304</v>
+      </c>
+      <c r="AD6" s="29">
         <v>5</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>0.67</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AE6" s="31">
+      <c r="AG6" s="31">
         <v>5</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.81</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:35">
       <c r="A7" s="28" t="s">
         <v>49</v>
       </c>
@@ -4110,45 +4159,51 @@
       <c r="U7">
         <v>0.77777777777777701</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7">
+        <v>0.671875</v>
+      </c>
+      <c r="W7" s="7">
         <v>14</v>
       </c>
-      <c r="W7" t="str">
+      <c r="X7" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X7" s="30">
+      <c r="Y7" s="30">
         <v>6</v>
-      </c>
-      <c r="Y7">
-        <v>0.86111111111111105</v>
       </c>
       <c r="Z7">
         <v>0.86111111111111105</v>
       </c>
       <c r="AA7">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="AB7">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AC7">
+        <v>0.50520833333333304</v>
+      </c>
+      <c r="AD7" s="29">
         <v>6</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>0.67</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AE7" s="31">
+      <c r="AG7" s="31">
         <v>6</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:35">
       <c r="A8" s="28" t="s">
         <v>53</v>
       </c>
@@ -4204,45 +4259,51 @@
       <c r="U8">
         <v>0.80555555555555503</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8">
+        <v>0.6875</v>
+      </c>
+      <c r="W8" s="3">
         <v>9</v>
       </c>
-      <c r="W8" t="str">
+      <c r="X8" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X8" s="30">
+      <c r="Y8" s="30">
         <v>7</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AC8">
+        <v>0.57291666666666596</v>
+      </c>
+      <c r="AD8" s="29">
         <v>7</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>0.61</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AE8" s="31">
+      <c r="AG8" s="31">
         <v>7</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>0.83299999999999996</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:35">
       <c r="A9" s="28" t="s">
         <v>55</v>
       </c>
@@ -4293,50 +4354,56 @@
         <v>0.63888888888888795</v>
       </c>
       <c r="T9">
-        <v>0.55555555555555503</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="U9">
         <v>0.66666666666666596</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="W9" s="7">
         <v>18</v>
       </c>
-      <c r="W9" t="str">
+      <c r="X9" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X9" s="30">
+      <c r="Y9" s="30">
         <v>8</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.72222222222222199</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.55555555555555503</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AC9">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="AD9" s="29">
         <v>8</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>0.86</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>0.55555555555555503</v>
       </c>
-      <c r="AE9" s="31">
+      <c r="AG9" s="31">
         <v>8</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>0.64</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:35">
       <c r="A10" s="28" t="s">
         <v>57</v>
       </c>
@@ -4392,45 +4459,51 @@
       <c r="U10">
         <v>0.72222222222222199</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10">
+        <v>0.63541666666666596</v>
+      </c>
+      <c r="W10" s="7">
         <v>23</v>
       </c>
-      <c r="W10" t="str">
+      <c r="X10" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X10" s="30">
+      <c r="Y10" s="30">
         <v>9</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.66666666666666596</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.75</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AC10">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="AD10" s="29">
         <v>9</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>0.94</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AE10" s="31">
+      <c r="AG10" s="31">
         <v>9</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:35">
       <c r="A11" s="28" t="s">
         <v>58</v>
       </c>
@@ -4481,50 +4554,56 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="T11">
-        <v>0.86111111111111105</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="U11">
         <v>0.86111111111111105</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="W11" s="7">
         <v>10</v>
       </c>
-      <c r="W11" t="str">
+      <c r="X11" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X11" s="30">
+      <c r="Y11" s="30">
         <v>10</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0.72222222222222199</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.75</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AB11" s="29">
+      <c r="AC11">
+        <v>0.625</v>
+      </c>
+      <c r="AD11" s="29">
         <v>10</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>0.69</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AE11" s="31">
+      <c r="AG11" s="31">
         <v>10</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>0.69</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:35">
       <c r="A12" s="28" t="s">
         <v>62</v>
       </c>
@@ -4583,39 +4662,45 @@
       <c r="U12">
         <v>0.73333333333333295</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12">
+        <v>0.68589743589743501</v>
+      </c>
+      <c r="W12" s="7">
         <v>8</v>
       </c>
-      <c r="W12" t="str">
+      <c r="X12" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X12" s="30">
+      <c r="Y12" s="30">
         <v>11</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0.73333333333333295</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>0.7</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AB12" s="29">
+      <c r="AC12">
+        <v>0.50641025641025605</v>
+      </c>
+      <c r="AD12" s="29">
         <v>11</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>0.72</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>0.6</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:35">
       <c r="A13" s="28" t="s">
         <v>69</v>
       </c>
@@ -4666,44 +4751,50 @@
         <v>0.4</v>
       </c>
       <c r="T13">
-        <v>0.86666666666666603</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="U13">
         <v>0.5</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13">
+        <v>0.737179487179487</v>
+      </c>
+      <c r="W13" s="7">
         <v>13</v>
       </c>
-      <c r="W13" t="str">
-        <f>IF(V13&lt;=12,"L",IF(V13&gt;18,"H", "M"))</f>
+      <c r="X13" t="str">
+        <f>IF(W13&lt;=12,"L",IF(W13&gt;18,"H", "M"))</f>
         <v>M</v>
       </c>
-      <c r="X13" s="30">
+      <c r="Y13" s="30">
         <v>12</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>0.5</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>0.96666666666666601</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>0.53333333333333299</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
+        <v>0.52564102564102499</v>
+      </c>
+      <c r="AD13">
         <v>12</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>-1</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:35">
       <c r="A14" s="28" t="s">
         <v>73</v>
       </c>
@@ -4754,44 +4845,50 @@
         <v>0.86111111111111105</v>
       </c>
       <c r="T14">
-        <v>0.75</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="U14">
         <v>0.83333333333333304</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14">
+        <v>0.65625</v>
+      </c>
+      <c r="W14" s="7">
         <v>12</v>
       </c>
-      <c r="W14" t="str">
+      <c r="X14" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X14" s="30">
+      <c r="Y14" s="30">
         <v>13</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0.91666666666666596</v>
-      </c>
-      <c r="Z14">
-        <v>0.88888888888888795</v>
       </c>
       <c r="AA14">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AB14" s="29">
+      <c r="AB14">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="AC14">
+        <v>0.59895833333333304</v>
+      </c>
+      <c r="AD14" s="29">
         <v>13</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>0.89</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:35">
       <c r="A15" s="28" t="s">
         <v>78</v>
       </c>
@@ -4850,39 +4947,45 @@
       <c r="U15">
         <v>0.73333333333333295</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="W15" s="7">
         <v>20</v>
       </c>
-      <c r="W15" t="str">
+      <c r="X15" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X15" s="30">
+      <c r="Y15" s="30">
         <v>14</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.76666666666666605</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.7</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AB15" s="29">
+      <c r="AC15">
+        <v>0.55128205128205099</v>
+      </c>
+      <c r="AD15" s="29">
         <v>14</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>0.75</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:35">
       <c r="A16" s="32" t="s">
         <v>83</v>
       </c>
@@ -4936,50 +5039,56 @@
         <v>0.63888888888888795</v>
       </c>
       <c r="T16">
-        <v>0.44444444444444398</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="U16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16">
+        <v>0.5</v>
+      </c>
+      <c r="W16" s="9">
         <v>21</v>
       </c>
-      <c r="W16" t="str">
+      <c r="X16" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X16" s="30">
+      <c r="Y16" s="30">
         <v>15</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.55555555555555503</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.47222222222222199</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.5</v>
       </c>
-      <c r="AB16" s="29">
+      <c r="AC16">
+        <v>0.47395833333333298</v>
+      </c>
+      <c r="AD16" s="29">
         <v>15</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>0.81</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>0.44444444444444398</v>
       </c>
-      <c r="AE16" s="31">
+      <c r="AG16" s="31">
         <v>15</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:35">
       <c r="A17" s="28" t="s">
         <v>88</v>
       </c>
@@ -5030,50 +5139,56 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="T17">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="U17">
         <v>0.77777777777777701</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W17" s="9">
         <v>13</v>
       </c>
-      <c r="W17" t="str">
+      <c r="X17" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X17" s="30">
+      <c r="Y17" s="30">
         <v>16</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.69444444444444398</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AB17" s="29">
+      <c r="AC17">
+        <v>0.52604166666666596</v>
+      </c>
+      <c r="AD17" s="29">
         <v>16</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>0.78</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AE17" s="31">
+      <c r="AG17" s="31">
         <v>16</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:35">
       <c r="A18" s="28" t="s">
         <v>92</v>
       </c>
@@ -5124,50 +5239,56 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="T18">
-        <v>0.69444444444444398</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="U18">
         <v>0.80555555555555503</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="W18" s="7">
         <v>0</v>
       </c>
-      <c r="W18" t="str">
+      <c r="X18" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X18" s="30">
+      <c r="Y18" s="30">
         <v>17</v>
-      </c>
-      <c r="Y18">
-        <v>0.77777777777777701</v>
       </c>
       <c r="Z18">
         <v>0.77777777777777701</v>
       </c>
       <c r="AA18">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="AB18">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AB18" s="29">
+      <c r="AC18">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="AD18" s="29">
         <v>17</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>0.77</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AE18" s="31">
+      <c r="AG18" s="31">
         <v>17</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:35">
       <c r="A19" s="28" t="s">
         <v>93</v>
       </c>
@@ -5218,50 +5339,56 @@
         <v>0.5</v>
       </c>
       <c r="T19">
-        <v>0.55555555555555503</v>
+        <v>0.5</v>
       </c>
       <c r="U19">
         <v>0.58333333333333304</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19">
+        <v>0.57291666666666596</v>
+      </c>
+      <c r="W19" s="7">
         <v>28</v>
       </c>
-      <c r="W19" t="str">
+      <c r="X19" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X19" s="30">
+      <c r="Y19" s="30">
         <v>18</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.72222222222222199</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AB19" s="29">
+      <c r="AC19">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="AD19" s="29">
         <v>18</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>0.87</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AE19" s="31">
+      <c r="AG19" s="31">
         <v>18</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:35">
       <c r="A20" s="28" t="s">
         <v>96</v>
       </c>
@@ -5315,44 +5442,50 @@
         <v>0.79166666666666596</v>
       </c>
       <c r="T20">
-        <v>0.70833333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="U20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20">
+        <v>0.640625</v>
+      </c>
+      <c r="W20" s="7">
         <v>13</v>
       </c>
-      <c r="W20" t="str">
+      <c r="X20" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X20" s="30">
+      <c r="Y20" s="30">
         <v>19</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.75</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.79166666666666596</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
+        <v>0.5078125</v>
+      </c>
+      <c r="AD20">
         <v>19</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>0</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>-1</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:35">
       <c r="A21" s="28" t="s">
         <v>99</v>
       </c>
@@ -5408,45 +5541,51 @@
       <c r="U21">
         <v>0.47222222222222199</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="W21" s="7">
         <v>7</v>
       </c>
-      <c r="W21" t="str">
+      <c r="X21" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X21" s="30">
+      <c r="Y21" s="30">
         <v>20</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.63888888888888795</v>
-      </c>
-      <c r="Z21">
-        <v>0.61111111111111105</v>
       </c>
       <c r="AA21">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AB21" s="29">
+      <c r="AB21">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AC21">
+        <v>0.53125</v>
+      </c>
+      <c r="AD21" s="29">
         <v>20</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>0.89</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>0.5</v>
       </c>
-      <c r="AE21" s="31">
+      <c r="AG21" s="31">
         <v>20</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:35">
       <c r="A22" s="27" t="s">
         <v>101</v>
       </c>
@@ -5497,50 +5636,56 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="T22">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="U22">
         <v>0.66666666666666596</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="W22" s="9">
         <v>18</v>
       </c>
-      <c r="W22" t="str">
+      <c r="X22" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X22" s="30">
+      <c r="Y22" s="30">
         <v>21</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.72222222222222199</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.75</v>
       </c>
-      <c r="AB22" s="29">
+      <c r="AC22">
+        <v>0.578125</v>
+      </c>
+      <c r="AD22" s="29">
         <v>21</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>0.86</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AE22" s="31">
+      <c r="AG22" s="31">
         <v>21</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>0.69</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:35">
       <c r="A23" s="27" t="s">
         <v>103</v>
       </c>
@@ -5596,45 +5741,51 @@
       <c r="U23">
         <v>0.61111111111111105</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23">
+        <v>0.58854166666666596</v>
+      </c>
+      <c r="W23" s="9">
         <v>13</v>
       </c>
-      <c r="W23" t="str">
+      <c r="X23" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X23" s="30">
+      <c r="Y23" s="30">
         <v>22</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.61111111111111105</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AB23" s="29">
+      <c r="AC23">
+        <v>0.63541666666666596</v>
+      </c>
+      <c r="AD23" s="29">
         <v>22</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>0.69</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>0.5</v>
       </c>
-      <c r="AE23" s="31">
+      <c r="AG23" s="31">
         <v>22</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:35">
       <c r="A24" s="27" t="s">
         <v>107</v>
       </c>
@@ -5685,50 +5836,56 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="T24">
-        <v>0.69444444444444398</v>
+        <v>0.75</v>
       </c>
       <c r="U24">
         <v>0.63888888888888795</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="W24" s="9">
         <v>15</v>
       </c>
-      <c r="W24" t="str">
+      <c r="X24" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X24" s="30">
+      <c r="Y24" s="30">
         <v>23</v>
-      </c>
-      <c r="Y24">
-        <v>0.58333333333333304</v>
       </c>
       <c r="Z24">
         <v>0.58333333333333304</v>
       </c>
       <c r="AA24">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AB24">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AB24" s="29">
+      <c r="AC24">
+        <v>0.52604166666666596</v>
+      </c>
+      <c r="AD24" s="29">
         <v>23</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>0.67</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AE24" s="31">
+      <c r="AG24" s="31">
         <v>23</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:35">
       <c r="A25" s="22" t="s">
         <v>108</v>
       </c>
@@ -5779,50 +5936,56 @@
         <v>0.80555555555555503</v>
       </c>
       <c r="T25">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="U25">
         <v>0.88888888888888795</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="W25" s="7">
         <v>11</v>
       </c>
-      <c r="W25" t="str">
+      <c r="X25" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X25" s="30">
+      <c r="Y25" s="30">
         <v>24</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.75</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.75</v>
       </c>
-      <c r="AB25" s="29">
+      <c r="AC25">
+        <v>0.671875</v>
+      </c>
+      <c r="AD25" s="29">
         <v>24</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>0.86</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>0.75</v>
       </c>
-      <c r="AE25" s="31">
+      <c r="AG25" s="31">
         <v>24</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>0.64</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:35">
       <c r="A26" s="22" t="s">
         <v>109</v>
       </c>
@@ -5873,50 +6036,56 @@
         <v>0.88888888888888795</v>
       </c>
       <c r="T26">
-        <v>0.94444444444444398</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="U26">
         <v>0.88888888888888795</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26">
+        <v>0.71875</v>
+      </c>
+      <c r="W26" s="7">
         <v>13</v>
       </c>
-      <c r="W26" t="str">
+      <c r="X26" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X26" s="30">
+      <c r="Y26" s="30">
         <v>25</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.77777777777777701</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.75</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AB26" s="29">
+      <c r="AC26">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="AD26" s="29">
         <v>25</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>0.89</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>0.75</v>
       </c>
-      <c r="AE26" s="31">
+      <c r="AG26" s="31">
         <v>25</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>0.64</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:35">
       <c r="A27" s="22" t="s">
         <v>113</v>
       </c>
@@ -5972,45 +6141,51 @@
       <c r="U27">
         <v>0.55555555555555503</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27">
+        <v>0.59895833333333304</v>
+      </c>
+      <c r="W27" s="3">
         <v>25</v>
       </c>
-      <c r="W27" t="str">
+      <c r="X27" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X27" s="30">
+      <c r="Y27" s="30">
         <v>26</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.72222222222222199</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AB27" s="29">
+      <c r="AC27">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="AD27" s="29">
         <v>26</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>0.86</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AE27" s="31">
+      <c r="AG27" s="31">
         <v>26</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:35">
       <c r="A28" s="22" t="s">
         <v>117</v>
       </c>
@@ -6061,50 +6236,56 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="T28">
-        <v>0.77777777777777701</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="U28">
         <v>0.80555555555555503</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="W28" s="7">
         <v>7</v>
       </c>
-      <c r="W28" t="str">
+      <c r="X28" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X28" s="30">
+      <c r="Y28" s="30">
         <v>27</v>
-      </c>
-      <c r="Y28">
-        <v>0.88888888888888795</v>
       </c>
       <c r="Z28">
         <v>0.88888888888888795</v>
       </c>
       <c r="AA28">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="AB28">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AB28" s="29">
+      <c r="AC28">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="AD28" s="29">
         <v>27</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>0.69</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AE28" s="31">
+      <c r="AG28" s="31">
         <v>27</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>0.86</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:35">
       <c r="A29" s="22" t="s">
         <v>120</v>
       </c>
@@ -6155,50 +6336,56 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="T29">
-        <v>0.55555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="U29">
         <v>0.55555555555555503</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29">
+        <v>0.57291666666666596</v>
+      </c>
+      <c r="W29" s="7">
         <v>28</v>
       </c>
-      <c r="W29" t="str">
+      <c r="X29" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X29" s="30">
+      <c r="Y29" s="30">
         <v>28</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.66666666666666596</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.52777777777777701</v>
       </c>
-      <c r="AB29" s="29">
+      <c r="AC29">
+        <v>0.53125</v>
+      </c>
+      <c r="AD29" s="29">
         <v>28</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AE29" s="31">
+      <c r="AG29" s="31">
         <v>28</v>
       </c>
-      <c r="AF29">
+      <c r="AH29">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AG29">
+      <c r="AI29">
         <v>0.64</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:35">
       <c r="A30" s="22" t="s">
         <v>121</v>
       </c>
@@ -6249,50 +6436,56 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="T30">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="U30">
         <v>0.75</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30">
+        <v>0.56770833333333304</v>
+      </c>
+      <c r="W30" s="7">
         <v>14</v>
       </c>
-      <c r="W30" t="str">
+      <c r="X30" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X30" s="30">
+      <c r="Y30" s="30">
         <v>29</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.75</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AB30" s="29">
+      <c r="AC30">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="AD30" s="29">
         <v>29</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>0.72</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AE30" s="31">
+      <c r="AG30" s="31">
         <v>29</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:35">
       <c r="A31" s="22" t="s">
         <v>123</v>
       </c>
@@ -6343,50 +6536,56 @@
         <v>0.69444444444444398</v>
       </c>
       <c r="T31">
-        <v>0.75</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="U31">
         <v>0.77777777777777701</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31">
+        <v>0.65625</v>
+      </c>
+      <c r="W31" s="7">
         <v>8</v>
       </c>
-      <c r="W31" t="str">
+      <c r="X31" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X31" s="30">
+      <c r="Y31" s="30">
         <v>30</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.63888888888888795</v>
-      </c>
-      <c r="Z31">
-        <v>0.66666666666666596</v>
       </c>
       <c r="AA31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AB31" s="29">
+      <c r="AB31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AC31">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AD31" s="29">
         <v>30</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <v>0.73</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AE31" s="31">
+      <c r="AG31" s="31">
         <v>30</v>
       </c>
-      <c r="AF31">
+      <c r="AH31">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>0.61</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:35">
       <c r="A32" s="22" t="s">
         <v>124</v>
       </c>
@@ -6437,50 +6636,56 @@
         <v>0.94444444444444398</v>
       </c>
       <c r="T32">
-        <v>0.94444444444444398</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="U32">
         <v>0.80555555555555503</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32">
+        <v>0.75</v>
+      </c>
+      <c r="W32" s="7">
         <v>13</v>
       </c>
-      <c r="W32" t="str">
+      <c r="X32" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X32" s="30">
+      <c r="Y32" s="30">
         <v>31</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.91666666666666596</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.94444444444444398</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AB32" s="29">
+      <c r="AC32">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="AD32" s="29">
         <v>31</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <v>0.47</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AE32" s="31">
+      <c r="AG32" s="31">
         <v>31</v>
       </c>
-      <c r="AF32">
+      <c r="AH32">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:35">
       <c r="A33" s="22" t="s">
         <v>125</v>
       </c>
@@ -6536,45 +6741,51 @@
       <c r="U33">
         <v>0.86111111111111105</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W33" s="7">
         <v>10</v>
       </c>
-      <c r="W33" t="str">
+      <c r="X33" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X33" s="30">
+      <c r="Y33" s="30">
         <v>32</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.80555555555555503</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AB33" s="29">
+      <c r="AC33">
+        <v>0.59375</v>
+      </c>
+      <c r="AD33" s="29">
         <v>32</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <v>0.89</v>
       </c>
-      <c r="AD33">
+      <c r="AF33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AE33" s="31">
+      <c r="AG33" s="31">
         <v>32</v>
       </c>
-      <c r="AF33">
+      <c r="AH33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AG33">
+      <c r="AI33">
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:35">
       <c r="A34" s="22" t="s">
         <v>126</v>
       </c>
@@ -6625,50 +6836,56 @@
         <v>0.55555555555555503</v>
       </c>
       <c r="T34">
-        <v>0.75</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="U34">
         <v>0.69444444444444398</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34">
+        <v>0.640625</v>
+      </c>
+      <c r="W34" s="7">
         <v>12</v>
       </c>
-      <c r="W34" t="str">
+      <c r="X34" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X34" s="30">
+      <c r="Y34" s="30">
         <v>33</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.75</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AB34" s="29">
+      <c r="AC34">
+        <v>0.46354166666666602</v>
+      </c>
+      <c r="AD34" s="29">
         <v>33</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>0.77</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AE34" s="31">
+      <c r="AG34" s="31">
         <v>33</v>
       </c>
-      <c r="AF34">
+      <c r="AH34">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AG34">
+      <c r="AI34">
         <v>0.81</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:35">
       <c r="A35" s="22" t="s">
         <v>127</v>
       </c>
@@ -6719,47 +6936,53 @@
         <v>0.75</v>
       </c>
       <c r="T35">
-        <v>0.72222222222222199</v>
+        <v>0.75</v>
       </c>
       <c r="U35">
         <v>0.77777777777777701</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="W35" s="7">
         <v>11</v>
       </c>
-      <c r="W35" t="str">
+      <c r="X35" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X35" s="30">
+      <c r="Y35" s="30">
         <v>34</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.69444444444444398</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.75</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AB35" s="29">
+      <c r="AC35">
+        <v>0.546875</v>
+      </c>
+      <c r="AD35" s="29">
         <v>34</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <v>0.42</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AE35" s="31">
+      <c r="AG35" s="31">
         <v>34</v>
       </c>
-      <c r="AF35">
+      <c r="AH35">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:35">
       <c r="A36" s="22" t="s">
         <v>128</v>
       </c>
@@ -6810,47 +7033,53 @@
         <v>0.52777777777777701</v>
       </c>
       <c r="T36">
-        <v>0.80555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="U36">
         <v>0.72222222222222199</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36">
+        <v>0.5625</v>
+      </c>
+      <c r="W36" s="7">
         <v>16</v>
       </c>
-      <c r="W36" t="str">
+      <c r="X36" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X36" s="30">
+      <c r="Y36" s="30">
         <v>35</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.63888888888888795</v>
-      </c>
-      <c r="Z36">
-        <v>0.61111111111111105</v>
       </c>
       <c r="AA36">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AB36" s="29">
+      <c r="AB36">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AC36">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="AD36" s="29">
         <v>35</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <v>0.64</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AE36" s="31">
+      <c r="AG36" s="31">
         <v>35</v>
       </c>
-      <c r="AF36">
+      <c r="AH36">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:35">
       <c r="A37" s="27" t="s">
         <v>129</v>
       </c>
@@ -6901,47 +7130,53 @@
         <v>0.44444444444444398</v>
       </c>
       <c r="T37">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="U37">
         <v>0.80555555555555503</v>
       </c>
-      <c r="V37" s="9">
+      <c r="V37">
+        <v>0.640625</v>
+      </c>
+      <c r="W37" s="9">
         <v>20</v>
       </c>
-      <c r="W37" t="str">
+      <c r="X37" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X37" s="30">
+      <c r="Y37" s="30">
         <v>36</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AB37" s="29">
+      <c r="AC37">
+        <v>0.515625</v>
+      </c>
+      <c r="AD37" s="29">
         <v>36</v>
       </c>
-      <c r="AC37">
+      <c r="AE37">
         <v>0.78</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AE37" s="31">
+      <c r="AG37" s="31">
         <v>36</v>
       </c>
-      <c r="AF37">
+      <c r="AH37">
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:35">
       <c r="A38" s="28" t="s">
         <v>133</v>
       </c>
@@ -6995,44 +7230,50 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="T38">
-        <v>0.72222222222222199</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="U38">
         <v>0.69444444444444398</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="W38" s="7">
         <v>25</v>
       </c>
-      <c r="W38" t="str">
+      <c r="X38" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X38" s="30">
+      <c r="Y38" s="30">
         <v>37</v>
-      </c>
-      <c r="Y38">
-        <v>0.77777777777777701</v>
       </c>
       <c r="Z38">
         <v>0.77777777777777701</v>
       </c>
       <c r="AA38">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="AB38">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="AD38">
         <v>37</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <v>0</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>-1</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:35">
       <c r="A39" s="22" t="s">
         <v>137</v>
       </c>
@@ -7083,44 +7324,50 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="T39">
-        <v>0.69444444444444398</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="U39">
         <v>0.63888888888888795</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39">
+        <v>0.56770833333333304</v>
+      </c>
+      <c r="W39" s="7">
         <v>16</v>
       </c>
-      <c r="W39" t="str">
+      <c r="X39" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="X39" s="30">
+      <c r="Y39" s="30">
         <v>38</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.77777777777777701</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AB39" s="29">
+      <c r="AC39">
+        <v>0.59895833333333304</v>
+      </c>
+      <c r="AD39" s="29">
         <v>38</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>0.75</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AE39" s="31">
+      <c r="AG39" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:35">
       <c r="A40" s="22" t="s">
         <v>138</v>
       </c>
@@ -7176,39 +7423,45 @@
       <c r="U40">
         <v>0.83333333333333304</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40">
+        <v>0.75520833333333304</v>
+      </c>
+      <c r="W40" s="7">
         <v>31</v>
       </c>
-      <c r="W40" t="str">
+      <c r="X40" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="X40" s="30">
+      <c r="Y40" s="30">
         <v>39</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AB40" s="29">
+      <c r="AC40">
+        <v>0.609375</v>
+      </c>
+      <c r="AD40" s="29">
         <v>39</v>
       </c>
-      <c r="AC40">
+      <c r="AE40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AD40">
+      <c r="AF40">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AE40" s="31">
+      <c r="AG40" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:35">
       <c r="A41" s="27" t="s">
         <v>139</v>
       </c>
@@ -7262,44 +7515,50 @@
         <v>0.8</v>
       </c>
       <c r="T41">
-        <v>0.96666666666666601</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="U41">
         <v>0.86666666666666603</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41">
+        <v>0.71153846153846101</v>
+      </c>
+      <c r="W41" s="7">
         <v>9</v>
       </c>
-      <c r="W41" t="str">
+      <c r="X41" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="X41" s="30">
+      <c r="Y41" s="30">
         <v>40</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>0.76666666666666605</v>
-      </c>
-      <c r="Z41">
-        <v>0.73333333333333295</v>
       </c>
       <c r="AA41">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AB41" s="29">
+      <c r="AB41">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AC41">
+        <v>0.58974358974358898</v>
+      </c>
+      <c r="AD41" s="29">
         <v>40</v>
       </c>
-      <c r="AC41">
+      <c r="AE41">
         <v>0.67</v>
       </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AE41">
+      <c r="AG41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:35">
       <c r="A42" s="28" t="s">
         <v>140</v>
       </c>
@@ -7330,38 +7589,38 @@
         <v>0.9</v>
       </c>
       <c r="T42">
-        <v>0.63333333333333297</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="U42">
         <v>0.6</v>
       </c>
-      <c r="V42" t="s">
-        <v>65</v>
+      <c r="V42">
+        <v>0.60897435897435803</v>
       </c>
       <c r="W42" t="s">
         <v>65</v>
       </c>
-      <c r="X42" s="30">
+      <c r="X42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y42" s="30">
         <v>41</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>0.76666666666666605</v>
       </c>
-      <c r="Z42" s="36"/>
-      <c r="AA42">
+      <c r="AA42" s="36"/>
+      <c r="AB42">
         <v>0</v>
       </c>
-      <c r="AB42" s="29">
+      <c r="AD42" s="29">
         <v>41</v>
       </c>
-      <c r="AC42">
-        <v>0.61</v>
-      </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:35">
       <c r="A43" s="27" t="s">
         <v>142</v>
       </c>
@@ -7414,35 +7673,38 @@
       <c r="S43">
         <v>0.7</v>
       </c>
-      <c r="T43" s="7" t="s">
-        <v>65</v>
+      <c r="T43">
+        <v>0.63333333333333297</v>
       </c>
       <c r="U43">
         <v>0.86666666666666603</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V43">
+        <v>0.62179487179487103</v>
+      </c>
+      <c r="W43" t="s">
         <v>65</v>
       </c>
-      <c r="W43" s="30">
+      <c r="X43" s="30">
         <v>42</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>0.73333333333333295</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AA43" s="29">
+      <c r="AC43">
+        <v>0.64</v>
+      </c>
+      <c r="AD43" s="29">
         <v>42</v>
       </c>
-      <c r="AB43">
-        <v>0.64</v>
-      </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:35">
       <c r="Q44" s="38">
         <v>20</v>
       </c>
@@ -7454,47 +7716,51 @@
       </c>
       <c r="T44">
         <f>AVERAGE(T2:T42)</f>
-        <v>0.74044715447154408</v>
+        <v>0.73333333333333262</v>
       </c>
       <c r="U44">
         <f>AVERAGE(U2:U43)</f>
         <v>0.73730158730158679</v>
       </c>
-      <c r="W44" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="X44" s="39">
-        <f>AVERAGE(X2:X43)</f>
+      <c r="V44">
+        <f>AVERAGE(V2:V43)</f>
+        <v>0.64050099206349154</v>
+      </c>
+      <c r="X44" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y44" s="39">
+        <f>AVERAGE(Y2:Y43)</f>
         <v>20.517460317460319</v>
-      </c>
-      <c r="Y44" s="39">
-        <f>AVERAGE(Z2:Z41)</f>
-        <v>0.74937499999999946</v>
       </c>
       <c r="Z44" s="39">
         <f>AVERAGE(AA2:AA41)</f>
+        <v>0.74937499999999946</v>
+      </c>
+      <c r="AA44" s="39">
+        <f>AVERAGE(AB2:AB41)</f>
         <v>0.73326388888888838</v>
       </c>
-      <c r="AA44" s="39"/>
-      <c r="AB44" s="39">
-        <f>AVERAGE(AC2:AC12,AC14:AC19,AC21:AC37,AC39:AC42)</f>
-        <v>0.74473684210526314</v>
-      </c>
+      <c r="AB44" s="39"/>
       <c r="AC44" s="39">
-        <f>AVERAGE(AD2:AD12,AD14:AD19,AD21:AD37,AD39:AD41)</f>
+        <f>AVERAGE(AC2:AC41)</f>
+        <v>0.55764723557692242</v>
+      </c>
+      <c r="AD44" s="39">
+        <f>AVERAGE(AF2:AF12,AF14:AF19,AF21:AF37,AF39:AF41)</f>
         <v>0.7226726726726721</v>
       </c>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="39">
-        <f>AVERAGE(AF2:AF11,AF16:AF19,AF21:AF37)</f>
+      <c r="AE44" s="39"/>
+      <c r="AF44" s="39">
+        <f>AVERAGE(AH2:AH11,AH16:AH19,AH21:AH37)</f>
         <v>0.73654838709677428</v>
       </c>
-      <c r="AF44" s="39">
-        <f>AVERAGE(AG2:AG11,AG16:AG19,AG21:AG34)</f>
+      <c r="AG44" s="39">
+        <f>AVERAGE(AI2:AI11,AI16:AI19,AI21:AI34)</f>
         <v>0.70892857142857146</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:35">
       <c r="Q45" s="38">
         <v>21</v>
       </c>
@@ -7504,20 +7770,24 @@
       <c r="S45">
         <v>0.77777777777777701</v>
       </c>
-      <c r="Y45" s="34" t="s">
+      <c r="Z45" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA45" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="Z45" s="34" t="s">
-        <v>168</v>
+      <c r="AB45" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="AC45" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF45" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD45" s="34"/>
+      <c r="AG45" s="34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:35">
       <c r="Q46" s="38">
         <v>22</v>
       </c>
@@ -7527,20 +7797,24 @@
       <c r="S46">
         <v>0.63888888888888795</v>
       </c>
-      <c r="Y46" s="34" t="s">
-        <v>166</v>
-      </c>
       <c r="Z46" s="34" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+      <c r="AA46" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB46" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="AC46" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF46" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD46" s="34"/>
+      <c r="AG46" s="34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:35">
       <c r="Q47" s="38">
         <v>23</v>
       </c>
@@ -7550,29 +7824,29 @@
       <c r="S47">
         <v>0.61111111111111105</v>
       </c>
-      <c r="Y47" t="s">
-        <v>165</v>
-      </c>
       <c r="Z47" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB47" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF47" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AC47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE47" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33">
+    </row>
+    <row r="48" spans="1:35">
       <c r="R48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="25:25">
-      <c r="Y63" s="34"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="26:26">
+      <c r="Z63" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -7596,16 +7870,16 @@
   <sheetData>
     <row r="1" spans="3:19">
       <c r="C1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R1">
         <v>0.83333333333333304</v>
@@ -8274,7 +8548,7 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45">
         <f>CORREL(C2:C43,D2:D43)</f>
@@ -8295,8 +8569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDC993-D4AA-443C-8994-DBE9177B9A16}">
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8384,7 +8658,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T1" s="19" t="s">
         <v>18</v>
@@ -8399,13 +8673,13 @@
         <v>21</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>22</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>23</v>
@@ -12202,11 +12476,11 @@
     <row r="45" spans="1:32">
       <c r="X45" s="34"/>
       <c r="Y45" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z45" s="34"/>
       <c r="AC45" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF45" s="34" t="s">
         <v>144</v>
@@ -12214,7 +12488,7 @@
     </row>
     <row r="46" spans="1:32">
       <c r="R46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S46">
         <f>CORREL(R2:R41,T2:T41)</f>
@@ -12222,11 +12496,11 @@
       </c>
       <c r="X46" s="34"/>
       <c r="Y46" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z46" s="34"/>
       <c r="AC46" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF46" s="34" t="s">
         <v>145</v>
@@ -12235,14 +12509,14 @@
     <row r="47" spans="1:32">
       <c r="X47" s="34"/>
       <c r="Y47" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z47" s="34"/>
       <c r="AC47" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF47" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="24:26">
